--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
-  <si>
-    <t>e/ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Calv.</t>
   </si>
@@ -144,6 +141,57 @@
   </si>
   <si>
     <t>Breed Avg. EPDs for 2016 Born Calves</t>
+  </si>
+  <si>
+    <t>KJ HVH 33N REDEEM 485T ET {SOD,DLF,HYF,IEF} (P42834201)</t>
+  </si>
+  <si>
+    <t>C&amp;L CT FEDERAL 485T 6Y {DLF,HYF,IEF} (P43214122)</t>
+  </si>
+  <si>
+    <t>C&amp;L MISS JUNIOR 408 1T {DLF,HYF,IEF} (P42829524)</t>
+  </si>
+  <si>
+    <t>Sire: C &amp; L FEDERAL 6Y 3B {DLF,HYF,IEF} (P43509760)</t>
+  </si>
+  <si>
+    <t>KCF BENNETT 3008 M326 {SOD,DLF,HYF,IEF} (P42361822)</t>
+  </si>
+  <si>
+    <t>C&amp;L TRILLIUM M326 22W (P43019015)</t>
+  </si>
+  <si>
+    <t>LAKE BJG IRIS 209N {DLF,HYF,IEF} (42376289)</t>
+  </si>
+  <si>
+    <t>Animal: COFO 6Y 3B ECHO E866 (P43863951)</t>
+  </si>
+  <si>
+    <t>FELTONS LEGEND 242 {SOD,HYF} (P42016383)</t>
+  </si>
+  <si>
+    <t>JDB 242 LEGEND R113 (P42648487)</t>
+  </si>
+  <si>
+    <t>JDB H87 LEANN N081 (P42444335)</t>
+  </si>
+  <si>
+    <t>Dam: COFO MS LEGEND Z4 (P43277859)</t>
+  </si>
+  <si>
+    <t>JDB H33 HENRY M75 (P42312184)</t>
+  </si>
+  <si>
+    <t>C OF O M75 MS VICKI 162R (P42627562)</t>
+  </si>
+  <si>
+    <t>C OF O VIC 8178 353K (P42189619)</t>
+  </si>
+  <si>
+    <t>Pedigree</t>
+  </si>
+  <si>
+    <t>EPD</t>
   </si>
 </sst>
 </file>
@@ -465,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K12"/>
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,96 +526,96 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>-4.7</v>
@@ -602,7 +650,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>1.6</v>
@@ -637,77 +685,77 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
       <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
         <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -772,6 +820,84 @@
       </c>
       <c r="K12">
         <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
